--- a/Projects 2023/UEP 17th Floor/Second Running Bill UEP.xlsx
+++ b/Projects 2023/UEP 17th Floor/Second Running Bill UEP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\UEP 17th Floor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE0127E-0D6E-49D3-A8E2-F0147AB565FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF4DC8D-7C68-4D96-8C00-BBDABF9D9E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="602" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="66" r:id="rId1"/>
@@ -3865,233 +3865,26 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="78" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="81" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="83" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="99" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="82" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="90" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="91" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="92" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="81" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="82" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="99" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="75" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4102,6 +3895,213 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="78" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="81" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="83" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="99" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="82" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="84" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="99" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="90" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="91" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="92" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="80" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="81" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="82" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma" xfId="13" builtinId="3"/>
@@ -5817,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6254,14 +6254,14 @@
       <c r="D7" s="368"/>
       <c r="E7" s="368"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="574"/>
-      <c r="H7" s="575"/>
-      <c r="I7" s="575"/>
-      <c r="J7" s="575"/>
-      <c r="K7" s="575"/>
-      <c r="L7" s="575"/>
-      <c r="M7" s="575"/>
-      <c r="N7" s="576"/>
+      <c r="G7" s="590"/>
+      <c r="H7" s="591"/>
+      <c r="I7" s="591"/>
+      <c r="J7" s="591"/>
+      <c r="K7" s="591"/>
+      <c r="L7" s="591"/>
+      <c r="M7" s="591"/>
+      <c r="N7" s="592"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -6294,14 +6294,14 @@
         <v>189</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="577"/>
-      <c r="H8" s="578"/>
-      <c r="I8" s="578"/>
-      <c r="J8" s="578"/>
-      <c r="K8" s="578"/>
-      <c r="L8" s="578"/>
-      <c r="M8" s="578"/>
-      <c r="N8" s="579"/>
+      <c r="G8" s="593"/>
+      <c r="H8" s="594"/>
+      <c r="I8" s="594"/>
+      <c r="J8" s="594"/>
+      <c r="K8" s="594"/>
+      <c r="L8" s="594"/>
+      <c r="M8" s="594"/>
+      <c r="N8" s="595"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -6324,14 +6324,14 @@
       <c r="D9" s="375"/>
       <c r="E9" s="376"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="577"/>
-      <c r="H9" s="578"/>
-      <c r="I9" s="578"/>
-      <c r="J9" s="578"/>
-      <c r="K9" s="578"/>
-      <c r="L9" s="578"/>
-      <c r="M9" s="578"/>
-      <c r="N9" s="579"/>
+      <c r="G9" s="593"/>
+      <c r="H9" s="594"/>
+      <c r="I9" s="594"/>
+      <c r="J9" s="594"/>
+      <c r="K9" s="594"/>
+      <c r="L9" s="594"/>
+      <c r="M9" s="594"/>
+      <c r="N9" s="595"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -6348,33 +6348,33 @@
       <c r="AB9" s="6"/>
     </row>
     <row r="10" spans="1:28" s="347" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="637">
+      <c r="A10" s="574">
         <v>1</v>
       </c>
-      <c r="B10" s="638" t="s">
+      <c r="B10" s="575" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="639">
+      <c r="C10" s="576">
         <f>HVAC!O114</f>
         <v>33328066.987357713</v>
       </c>
-      <c r="D10" s="639">
+      <c r="D10" s="576">
         <f>HVAC!Q114</f>
         <v>2789111.7736737803</v>
       </c>
-      <c r="E10" s="640">
+      <c r="E10" s="577">
         <f>D10+C10</f>
         <v>36117178.761031494</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="577"/>
-      <c r="H10" s="578"/>
-      <c r="I10" s="578"/>
-      <c r="J10" s="578"/>
-      <c r="K10" s="578"/>
-      <c r="L10" s="578"/>
-      <c r="M10" s="578"/>
-      <c r="N10" s="579"/>
+      <c r="G10" s="593"/>
+      <c r="H10" s="594"/>
+      <c r="I10" s="594"/>
+      <c r="J10" s="594"/>
+      <c r="K10" s="594"/>
+      <c r="L10" s="594"/>
+      <c r="M10" s="594"/>
+      <c r="N10" s="595"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -6391,33 +6391,33 @@
       <c r="AB10" s="6"/>
     </row>
     <row r="11" spans="1:28" s="377" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="637">
+      <c r="A11" s="574">
         <v>2</v>
       </c>
-      <c r="B11" s="641" t="s">
+      <c r="B11" s="578" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="639">
+      <c r="C11" s="576">
         <f>Fire!O32</f>
         <v>4401266.12</v>
       </c>
-      <c r="D11" s="639">
+      <c r="D11" s="576">
         <f>Fire!Q32</f>
         <v>843573</v>
       </c>
-      <c r="E11" s="640">
+      <c r="E11" s="577">
         <f>D11+C11</f>
         <v>5244839.12</v>
       </c>
       <c r="F11" s="36"/>
-      <c r="G11" s="580"/>
-      <c r="H11" s="581"/>
-      <c r="I11" s="581"/>
-      <c r="J11" s="581"/>
-      <c r="K11" s="581"/>
-      <c r="L11" s="581"/>
-      <c r="M11" s="581"/>
-      <c r="N11" s="582"/>
+      <c r="G11" s="596"/>
+      <c r="H11" s="597"/>
+      <c r="I11" s="597"/>
+      <c r="J11" s="597"/>
+      <c r="K11" s="597"/>
+      <c r="L11" s="597"/>
+      <c r="M11" s="597"/>
+      <c r="N11" s="598"/>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
@@ -6434,23 +6434,23 @@
       <c r="AB11" s="36"/>
     </row>
     <row r="12" spans="1:28" s="347" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="642">
+      <c r="A12" s="579">
         <v>3</v>
       </c>
-      <c r="B12" s="643" t="s">
+      <c r="B12" s="580" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="639">
+      <c r="C12" s="576">
         <f>Novec!O46</f>
-        <v>10035517</v>
-      </c>
-      <c r="D12" s="639">
+        <v>10352867</v>
+      </c>
+      <c r="D12" s="576">
         <f>Novec!Q46</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="640">
+        <v>578000</v>
+      </c>
+      <c r="E12" s="577">
         <f>D12+C12</f>
-        <v>10035517</v>
+        <v>10930867</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -6483,15 +6483,15 @@
       </c>
       <c r="C13" s="380">
         <f>SUM(C10:C12)</f>
-        <v>47764850.107357711</v>
+        <v>48082200.107357711</v>
       </c>
       <c r="D13" s="380">
         <f>SUM(D10:D12)</f>
-        <v>3632684.7736737803</v>
+        <v>4210684.7736737803</v>
       </c>
       <c r="E13" s="380">
         <f>SUM(E10:E12)</f>
-        <v>51397534.881031491</v>
+        <v>52292884.881031491</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6527,7 +6527,7 @@
       <c r="C14" s="448"/>
       <c r="D14" s="455">
         <f>E13*25%</f>
-        <v>12849383.720257873</v>
+        <v>13073221.220257873</v>
       </c>
       <c r="E14" s="449"/>
     </row>
@@ -6541,7 +6541,7 @@
       <c r="C15" s="448"/>
       <c r="D15" s="455">
         <f>E13*5%</f>
-        <v>2569876.7440515747</v>
+        <v>2614644.2440515747</v>
       </c>
       <c r="E15" s="449"/>
     </row>
@@ -6554,7 +6554,7 @@
       <c r="D16" s="450"/>
       <c r="E16" s="454">
         <f>-D14-D15</f>
-        <v>-15419260.464309447</v>
+        <v>-15687865.464309447</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="13" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
       <c r="D17" s="453"/>
       <c r="E17" s="454">
         <f>E13+E16</f>
-        <v>35978274.416722044</v>
+        <v>36605019.416722044</v>
       </c>
     </row>
     <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
@@ -7487,9 +7487,9 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B31" sqref="B31:D31"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7605,80 +7605,80 @@
     <row r="7" spans="1:18" s="6" customFormat="1" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="597" t="s">
+      <c r="D7" s="599" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="598"/>
-      <c r="J7" s="598"/>
-      <c r="K7" s="597" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="600"/>
+      <c r="J7" s="600"/>
+      <c r="K7" s="599" t="s">
         <v>205</v>
       </c>
-      <c r="L7" s="598"/>
-      <c r="M7" s="604"/>
-      <c r="N7" s="598" t="s">
+      <c r="L7" s="600"/>
+      <c r="M7" s="612"/>
+      <c r="N7" s="600" t="s">
         <v>206</v>
       </c>
-      <c r="O7" s="598"/>
-      <c r="P7" s="598"/>
-      <c r="Q7" s="598"/>
-      <c r="R7" s="605"/>
+      <c r="O7" s="600"/>
+      <c r="P7" s="600"/>
+      <c r="Q7" s="600"/>
+      <c r="R7" s="613"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="583" t="s">
+      <c r="A8" s="614" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="584"/>
-      <c r="C8" s="587" t="s">
+      <c r="B8" s="615"/>
+      <c r="C8" s="604" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="587" t="s">
+      <c r="D8" s="604" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="589" t="s">
+      <c r="E8" s="606" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="593" t="s">
+      <c r="F8" s="620" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="594"/>
-      <c r="H8" s="595" t="s">
+      <c r="G8" s="602"/>
+      <c r="H8" s="603" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="594"/>
+      <c r="I8" s="602"/>
       <c r="J8" s="518" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="600" t="s">
+      <c r="K8" s="608" t="s">
         <v>203</v>
       </c>
-      <c r="L8" s="602" t="s">
+      <c r="L8" s="610" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="589" t="s">
+      <c r="M8" s="606" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="599" t="s">
+      <c r="N8" s="601" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="594"/>
-      <c r="P8" s="595" t="s">
+      <c r="O8" s="602"/>
+      <c r="P8" s="603" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="594"/>
+      <c r="Q8" s="602"/>
       <c r="R8" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="27" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="585"/>
-      <c r="B9" s="586"/>
-      <c r="C9" s="588"/>
-      <c r="D9" s="588"/>
-      <c r="E9" s="590"/>
+      <c r="A9" s="616"/>
+      <c r="B9" s="617"/>
+      <c r="C9" s="605"/>
+      <c r="D9" s="605"/>
+      <c r="E9" s="607"/>
       <c r="F9" s="24" t="s">
         <v>10</v>
       </c>
@@ -7694,9 +7694,9 @@
       <c r="J9" s="519" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="601"/>
-      <c r="L9" s="603"/>
-      <c r="M9" s="590"/>
+      <c r="K9" s="609"/>
+      <c r="L9" s="611"/>
+      <c r="M9" s="607"/>
       <c r="N9" s="514" t="s">
         <v>10</v>
       </c>
@@ -13260,64 +13260,73 @@
     </row>
     <row r="117" spans="1:18" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
-      <c r="B117" s="592"/>
-      <c r="C117" s="596"/>
-      <c r="D117" s="596"/>
-      <c r="E117" s="596"/>
-      <c r="F117" s="596"/>
-      <c r="G117" s="596"/>
-      <c r="H117" s="596"/>
-      <c r="I117" s="596"/>
-      <c r="J117" s="596"/>
+      <c r="B117" s="619"/>
+      <c r="C117" s="621"/>
+      <c r="D117" s="621"/>
+      <c r="E117" s="621"/>
+      <c r="F117" s="621"/>
+      <c r="G117" s="621"/>
+      <c r="H117" s="621"/>
+      <c r="I117" s="621"/>
+      <c r="J117" s="621"/>
       <c r="K117" s="475"/>
       <c r="L117" s="475"/>
     </row>
     <row r="118" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
-      <c r="B118" s="592"/>
-      <c r="C118" s="592"/>
-      <c r="D118" s="592"/>
-      <c r="E118" s="592"/>
-      <c r="F118" s="592"/>
-      <c r="G118" s="592"/>
-      <c r="H118" s="592"/>
-      <c r="I118" s="592"/>
-      <c r="J118" s="592"/>
+      <c r="B118" s="619"/>
+      <c r="C118" s="619"/>
+      <c r="D118" s="619"/>
+      <c r="E118" s="619"/>
+      <c r="F118" s="619"/>
+      <c r="G118" s="619"/>
+      <c r="H118" s="619"/>
+      <c r="I118" s="619"/>
+      <c r="J118" s="619"/>
       <c r="K118" s="474"/>
       <c r="L118" s="474"/>
     </row>
     <row r="119" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
-      <c r="B119" s="592"/>
-      <c r="C119" s="592"/>
-      <c r="D119" s="592"/>
-      <c r="E119" s="592"/>
-      <c r="F119" s="592"/>
-      <c r="G119" s="592"/>
-      <c r="H119" s="592"/>
-      <c r="I119" s="592"/>
-      <c r="J119" s="592"/>
+      <c r="B119" s="619"/>
+      <c r="C119" s="619"/>
+      <c r="D119" s="619"/>
+      <c r="E119" s="619"/>
+      <c r="F119" s="619"/>
+      <c r="G119" s="619"/>
+      <c r="H119" s="619"/>
+      <c r="I119" s="619"/>
+      <c r="J119" s="619"/>
       <c r="K119" s="474"/>
       <c r="L119" s="474"/>
     </row>
     <row r="120" spans="1:18" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="219"/>
-      <c r="B120" s="591" t="s">
+      <c r="B120" s="618" t="s">
         <v>202</v>
       </c>
-      <c r="C120" s="591"/>
-      <c r="D120" s="591"/>
-      <c r="E120" s="591"/>
-      <c r="F120" s="591"/>
-      <c r="G120" s="591"/>
-      <c r="H120" s="591"/>
-      <c r="I120" s="591"/>
-      <c r="J120" s="591"/>
+      <c r="C120" s="618"/>
+      <c r="D120" s="618"/>
+      <c r="E120" s="618"/>
+      <c r="F120" s="618"/>
+      <c r="G120" s="618"/>
+      <c r="H120" s="618"/>
+      <c r="I120" s="618"/>
+      <c r="J120" s="618"/>
       <c r="K120" s="473"/>
       <c r="L120" s="473"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B120:J120"/>
+    <mergeCell ref="B119:J119"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B117:J117"/>
+    <mergeCell ref="B118:J118"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
@@ -13327,15 +13336,6 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="B120:J120"/>
-    <mergeCell ref="B119:J119"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B117:J117"/>
-    <mergeCell ref="B118:J118"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.25" top="0.63" bottom="0.5" header="0.32" footer="0.25"/>
@@ -13360,8 +13360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14088,78 +14088,78 @@
       <c r="A6" s="268"/>
       <c r="B6" s="268"/>
       <c r="C6" s="263"/>
-      <c r="D6" s="616" t="s">
+      <c r="D6" s="627" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="617"/>
-      <c r="F6" s="617"/>
-      <c r="G6" s="617"/>
-      <c r="H6" s="617"/>
-      <c r="I6" s="617"/>
-      <c r="J6" s="618"/>
-      <c r="K6" s="616" t="s">
+      <c r="E6" s="628"/>
+      <c r="F6" s="628"/>
+      <c r="G6" s="628"/>
+      <c r="H6" s="628"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="629"/>
+      <c r="K6" s="627" t="s">
         <v>206</v>
       </c>
-      <c r="L6" s="617"/>
-      <c r="M6" s="617"/>
-      <c r="N6" s="617"/>
-      <c r="O6" s="617"/>
-      <c r="P6" s="617"/>
-      <c r="Q6" s="617"/>
-      <c r="R6" s="618"/>
+      <c r="L6" s="628"/>
+      <c r="M6" s="628"/>
+      <c r="N6" s="628"/>
+      <c r="O6" s="628"/>
+      <c r="P6" s="628"/>
+      <c r="Q6" s="628"/>
+      <c r="R6" s="629"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="583" t="s">
+      <c r="A7" s="614" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="608"/>
-      <c r="C7" s="587" t="s">
+      <c r="B7" s="636"/>
+      <c r="C7" s="604" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="610" t="s">
+      <c r="D7" s="638" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="613" t="s">
+      <c r="E7" s="639" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="611" t="s">
+      <c r="F7" s="624" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="612"/>
-      <c r="H7" s="611" t="s">
+      <c r="G7" s="625"/>
+      <c r="H7" s="624" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="615"/>
+      <c r="I7" s="626"/>
       <c r="J7" s="420" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="644" t="s">
+      <c r="K7" s="622" t="s">
         <v>203</v>
       </c>
-      <c r="L7" s="645" t="s">
+      <c r="L7" s="630" t="s">
         <v>204</v>
       </c>
-      <c r="M7" s="646" t="s">
+      <c r="M7" s="632" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="611" t="s">
+      <c r="N7" s="624" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="612"/>
-      <c r="P7" s="611" t="s">
+      <c r="O7" s="625"/>
+      <c r="P7" s="624" t="s">
         <v>119</v>
       </c>
-      <c r="Q7" s="615"/>
+      <c r="Q7" s="626"/>
       <c r="R7" s="420" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="275" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="585"/>
-      <c r="B8" s="609"/>
-      <c r="C8" s="588"/>
-      <c r="D8" s="588"/>
-      <c r="E8" s="614"/>
+      <c r="A8" s="616"/>
+      <c r="B8" s="637"/>
+      <c r="C8" s="605"/>
+      <c r="D8" s="605"/>
+      <c r="E8" s="640"/>
       <c r="F8" s="272" t="s">
         <v>122</v>
       </c>
@@ -14175,9 +14175,9 @@
       <c r="J8" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="647"/>
-      <c r="L8" s="648"/>
-      <c r="M8" s="649"/>
+      <c r="K8" s="623"/>
+      <c r="L8" s="631"/>
+      <c r="M8" s="633"/>
       <c r="N8" s="272" t="s">
         <v>122</v>
       </c>
@@ -14195,8 +14195,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="606"/>
-      <c r="B9" s="607"/>
+      <c r="A9" s="634"/>
+      <c r="B9" s="635"/>
       <c r="C9" s="276" t="s">
         <v>125</v>
       </c>
@@ -14231,14 +14231,14 @@
       <c r="H10" s="283"/>
       <c r="I10" s="284"/>
       <c r="J10" s="285"/>
-      <c r="K10" s="651"/>
-      <c r="L10" s="652"/>
-      <c r="M10" s="652"/>
-      <c r="N10" s="653"/>
-      <c r="O10" s="653"/>
-      <c r="P10" s="653"/>
-      <c r="Q10" s="653"/>
-      <c r="R10" s="654"/>
+      <c r="K10" s="582"/>
+      <c r="L10" s="583"/>
+      <c r="M10" s="583"/>
+      <c r="N10" s="584"/>
+      <c r="O10" s="584"/>
+      <c r="P10" s="584"/>
+      <c r="Q10" s="584"/>
+      <c r="R10" s="585"/>
     </row>
     <row r="11" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
@@ -14253,14 +14253,14 @@
       <c r="H11" s="283"/>
       <c r="I11" s="283"/>
       <c r="J11" s="285"/>
-      <c r="K11" s="655"/>
-      <c r="L11" s="656"/>
-      <c r="M11" s="656"/>
-      <c r="N11" s="657"/>
-      <c r="O11" s="657"/>
-      <c r="P11" s="657"/>
-      <c r="Q11" s="657"/>
-      <c r="R11" s="658"/>
+      <c r="K11" s="586"/>
+      <c r="L11" s="587"/>
+      <c r="M11" s="587"/>
+      <c r="N11" s="588"/>
+      <c r="O11" s="588"/>
+      <c r="P11" s="588"/>
+      <c r="Q11" s="588"/>
+      <c r="R11" s="589"/>
     </row>
     <row r="12" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="290"/>
@@ -14312,10 +14312,13 @@
       <c r="P12" s="294">
         <v>4000</v>
       </c>
-      <c r="Q12" s="294"/>
+      <c r="Q12" s="294">
+        <f>P12*M12</f>
+        <v>76000</v>
+      </c>
       <c r="R12" s="294">
         <f>Q12+O12</f>
-        <v>2759750</v>
+        <v>2835750</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -14355,7 +14358,7 @@
         <v>63</v>
       </c>
       <c r="M13" s="293">
-        <f t="shared" ref="M13:M45" si="0">L13+K13</f>
+        <f t="shared" ref="M13:M44" si="0">L13+K13</f>
         <v>63</v>
       </c>
       <c r="N13" s="294">
@@ -14368,10 +14371,13 @@
       <c r="P13" s="294">
         <v>2500</v>
       </c>
-      <c r="Q13" s="294"/>
+      <c r="Q13" s="294">
+        <f>P13*M13</f>
+        <v>157500</v>
+      </c>
       <c r="R13" s="294">
         <f>Q13+O13</f>
-        <v>5685309</v>
+        <v>5842809</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
@@ -14424,10 +14430,13 @@
       <c r="P14" s="294">
         <v>5000</v>
       </c>
-      <c r="Q14" s="294"/>
+      <c r="Q14" s="294">
+        <f>P14*M14</f>
+        <v>10000</v>
+      </c>
       <c r="R14" s="294">
         <f>Q14+O14</f>
-        <v>376858</v>
+        <v>386858</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="114.75" x14ac:dyDescent="0.2">
@@ -14545,26 +14554,29 @@
       </c>
       <c r="K17" s="293"/>
       <c r="L17" s="293">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M17" s="293">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N17" s="294">
         <v>2490</v>
       </c>
       <c r="O17" s="294">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37350</v>
       </c>
       <c r="P17" s="294">
         <v>600</v>
       </c>
-      <c r="Q17" s="294"/>
+      <c r="Q17" s="294">
+        <f>P17*M17</f>
+        <v>9000</v>
+      </c>
       <c r="R17" s="294">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>46350</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14742,10 +14754,13 @@
       <c r="P22" s="294">
         <v>1500</v>
       </c>
-      <c r="Q22" s="294"/>
+      <c r="Q22" s="294">
+        <f t="shared" ref="Q22:Q23" si="3">P22*M22</f>
+        <v>1500</v>
+      </c>
       <c r="R22" s="294">
         <f>Q22+O22</f>
-        <v>7000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -14798,10 +14813,13 @@
       <c r="P23" s="294">
         <v>1500</v>
       </c>
-      <c r="Q23" s="294"/>
+      <c r="Q23" s="294">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
       <c r="R23" s="294">
         <f>Q23+O23</f>
-        <v>19000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14869,18 +14887,18 @@
         <v>188500</v>
       </c>
       <c r="G26" s="294">
-        <f t="shared" ref="G26:G31" si="3">F26*E26</f>
+        <f t="shared" ref="G26:G31" si="4">F26*E26</f>
         <v>377000</v>
       </c>
       <c r="H26" s="294">
         <v>35000</v>
       </c>
       <c r="I26" s="294">
-        <f t="shared" ref="I26:I31" si="4">H26*E26</f>
+        <f t="shared" ref="I26:I31" si="5">H26*E26</f>
         <v>70000</v>
       </c>
       <c r="J26" s="295">
-        <f t="shared" ref="J26:J31" si="5">I26+G26</f>
+        <f t="shared" ref="J26:J31" si="6">I26+G26</f>
         <v>447000</v>
       </c>
       <c r="K26" s="293"/>
@@ -14901,10 +14919,13 @@
       <c r="P26" s="294">
         <v>35000</v>
       </c>
-      <c r="Q26" s="294"/>
+      <c r="Q26" s="294">
+        <f t="shared" ref="Q26:Q31" si="7">P26*M26</f>
+        <v>70000</v>
+      </c>
       <c r="R26" s="294">
-        <f t="shared" ref="R26:R31" si="6">Q26+O26</f>
-        <v>377000</v>
+        <f t="shared" ref="R26:R31" si="8">Q26+O26</f>
+        <v>447000</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -14925,18 +14946,18 @@
         <v>10000</v>
       </c>
       <c r="G27" s="294">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40000</v>
       </c>
       <c r="H27" s="294">
         <v>1500</v>
       </c>
       <c r="I27" s="294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="J27" s="295">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46000</v>
       </c>
       <c r="K27" s="293"/>
@@ -14957,10 +14978,13 @@
       <c r="P27" s="294">
         <v>1500</v>
       </c>
-      <c r="Q27" s="294"/>
+      <c r="Q27" s="294">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
       <c r="R27" s="294">
-        <f t="shared" si="6"/>
-        <v>40000</v>
+        <f t="shared" si="8"/>
+        <v>46000</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -14981,18 +15005,18 @@
         <v>12500</v>
       </c>
       <c r="G28" s="294">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="H28" s="294">
         <v>1500</v>
       </c>
       <c r="I28" s="294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="J28" s="295">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56000</v>
       </c>
       <c r="K28" s="293"/>
@@ -15013,10 +15037,13 @@
       <c r="P28" s="294">
         <v>1500</v>
       </c>
-      <c r="Q28" s="294"/>
+      <c r="Q28" s="294">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
       <c r="R28" s="294">
-        <f t="shared" si="6"/>
-        <v>50000</v>
+        <f t="shared" si="8"/>
+        <v>56000</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -15037,18 +15064,18 @@
         <v>13700</v>
       </c>
       <c r="G29" s="294">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27400</v>
       </c>
       <c r="H29" s="294">
         <v>1500</v>
       </c>
       <c r="I29" s="294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="J29" s="295">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30400</v>
       </c>
       <c r="K29" s="293"/>
@@ -15069,10 +15096,13 @@
       <c r="P29" s="294">
         <v>1500</v>
       </c>
-      <c r="Q29" s="294"/>
+      <c r="Q29" s="294">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
       <c r="R29" s="294">
-        <f t="shared" si="6"/>
-        <v>27400</v>
+        <f t="shared" si="8"/>
+        <v>30400</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -15093,18 +15123,18 @@
         <v>18900</v>
       </c>
       <c r="G30" s="294">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37800</v>
       </c>
       <c r="H30" s="294">
         <v>1500</v>
       </c>
       <c r="I30" s="294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="J30" s="295">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40800</v>
       </c>
       <c r="K30" s="293"/>
@@ -15125,10 +15155,13 @@
       <c r="P30" s="294">
         <v>1500</v>
       </c>
-      <c r="Q30" s="294"/>
+      <c r="Q30" s="294">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
       <c r="R30" s="294">
-        <f t="shared" si="6"/>
-        <v>37800</v>
+        <f t="shared" si="8"/>
+        <v>40800</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -15150,18 +15183,18 @@
         <v>15000</v>
       </c>
       <c r="G31" s="294">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="H31" s="294">
         <v>1500</v>
       </c>
       <c r="I31" s="294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="J31" s="295">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33000</v>
       </c>
       <c r="K31" s="293"/>
@@ -15182,10 +15215,13 @@
       <c r="P31" s="294">
         <v>1500</v>
       </c>
-      <c r="Q31" s="294"/>
+      <c r="Q31" s="294">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
       <c r="R31" s="294">
-        <f t="shared" si="6"/>
-        <v>30000</v>
+        <f t="shared" si="8"/>
+        <v>33000</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15253,18 +15289,18 @@
         <v>45000</v>
       </c>
       <c r="G34" s="294">
-        <f t="shared" ref="G34:G39" si="7">F34*E34</f>
+        <f t="shared" ref="G34:G39" si="9">F34*E34</f>
         <v>90000</v>
       </c>
       <c r="H34" s="294">
         <v>2000</v>
       </c>
       <c r="I34" s="294">
-        <f t="shared" ref="I34:I39" si="8">H34*E34</f>
+        <f t="shared" ref="I34:I39" si="10">H34*E34</f>
         <v>4000</v>
       </c>
       <c r="J34" s="295">
-        <f t="shared" ref="J34:J39" si="9">I34+G34</f>
+        <f t="shared" ref="J34:J39" si="11">I34+G34</f>
         <v>94000</v>
       </c>
       <c r="K34" s="293"/>
@@ -15285,10 +15321,13 @@
       <c r="P34" s="294">
         <v>2000</v>
       </c>
-      <c r="Q34" s="294"/>
+      <c r="Q34" s="294">
+        <f t="shared" ref="Q34:Q39" si="12">P34*M34</f>
+        <v>4000</v>
+      </c>
       <c r="R34" s="294">
-        <f t="shared" ref="R34:R38" si="10">Q34+O34</f>
-        <v>90000</v>
+        <f t="shared" ref="R34:R38" si="13">Q34+O34</f>
+        <v>94000</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
@@ -15309,18 +15348,18 @@
         <v>50000</v>
       </c>
       <c r="G35" s="294">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
       <c r="H35" s="294">
         <v>5000</v>
       </c>
       <c r="I35" s="294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10000</v>
       </c>
       <c r="J35" s="295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>110000</v>
       </c>
       <c r="K35" s="293"/>
@@ -15341,10 +15380,13 @@
       <c r="P35" s="294">
         <v>5000</v>
       </c>
-      <c r="Q35" s="294"/>
+      <c r="Q35" s="294">
+        <f t="shared" si="12"/>
+        <v>10000</v>
+      </c>
       <c r="R35" s="294">
-        <f t="shared" si="10"/>
-        <v>100000</v>
+        <f t="shared" si="13"/>
+        <v>110000</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
@@ -15365,18 +15407,18 @@
         <v>35000</v>
       </c>
       <c r="G36" s="294">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70000</v>
       </c>
       <c r="H36" s="294">
         <v>2000</v>
       </c>
       <c r="I36" s="294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="J36" s="295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>74000</v>
       </c>
       <c r="K36" s="293"/>
@@ -15397,10 +15439,13 @@
       <c r="P36" s="294">
         <v>2000</v>
       </c>
-      <c r="Q36" s="294"/>
+      <c r="Q36" s="294">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
       <c r="R36" s="294">
-        <f t="shared" si="10"/>
-        <v>70000</v>
+        <f t="shared" si="13"/>
+        <v>74000</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
@@ -15421,18 +15466,18 @@
         <v>35000</v>
       </c>
       <c r="G37" s="294">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70000</v>
       </c>
       <c r="H37" s="294">
         <v>2000</v>
       </c>
       <c r="I37" s="294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="J37" s="295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>74000</v>
       </c>
       <c r="K37" s="293"/>
@@ -15453,10 +15498,13 @@
       <c r="P37" s="294">
         <v>2000</v>
       </c>
-      <c r="Q37" s="294"/>
+      <c r="Q37" s="294">
+        <f t="shared" si="12"/>
+        <v>4000</v>
+      </c>
       <c r="R37" s="294">
-        <f t="shared" si="10"/>
-        <v>70000</v>
+        <f t="shared" si="13"/>
+        <v>74000</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -15477,18 +15525,18 @@
         <v>8850</v>
       </c>
       <c r="G38" s="294">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35400</v>
       </c>
       <c r="H38" s="294">
         <v>1500</v>
       </c>
       <c r="I38" s="294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6000</v>
       </c>
       <c r="J38" s="295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>41400</v>
       </c>
       <c r="K38" s="293"/>
@@ -15509,10 +15557,13 @@
       <c r="P38" s="294">
         <v>1500</v>
       </c>
-      <c r="Q38" s="294"/>
+      <c r="Q38" s="294">
+        <f t="shared" si="12"/>
+        <v>6000</v>
+      </c>
       <c r="R38" s="294">
-        <f t="shared" si="10"/>
-        <v>35400</v>
+        <f t="shared" si="13"/>
+        <v>41400</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -15533,18 +15584,18 @@
         <v>65000</v>
       </c>
       <c r="G39" s="294">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>260000</v>
       </c>
       <c r="H39" s="294">
         <v>3000</v>
       </c>
       <c r="I39" s="294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12000</v>
       </c>
       <c r="J39" s="295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>272000</v>
       </c>
       <c r="K39" s="293"/>
@@ -15565,10 +15616,13 @@
       <c r="P39" s="294">
         <v>3000</v>
       </c>
-      <c r="Q39" s="294"/>
+      <c r="Q39" s="294">
+        <f t="shared" si="12"/>
+        <v>12000</v>
+      </c>
       <c r="R39" s="294">
         <f>Q39+O39</f>
-        <v>260000</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -15629,25 +15683,30 @@
         <v>215000</v>
       </c>
       <c r="K41" s="293"/>
-      <c r="L41" s="293"/>
+      <c r="L41" s="293">
+        <v>1</v>
+      </c>
       <c r="M41" s="293">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="294">
         <v>180000</v>
       </c>
       <c r="O41" s="294">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="P41" s="294">
         <v>35000</v>
       </c>
-      <c r="Q41" s="294"/>
+      <c r="Q41" s="294">
+        <f>P41*M41</f>
+        <v>35000</v>
+      </c>
       <c r="R41" s="294">
         <f>Q41+O41</f>
-        <v>0</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15684,25 +15743,30 @@
         <v>25000</v>
       </c>
       <c r="K42" s="293"/>
-      <c r="L42" s="293"/>
+      <c r="L42" s="293">
+        <v>1</v>
+      </c>
       <c r="M42" s="293">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="294">
         <v>10000</v>
       </c>
       <c r="O42" s="294">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P42" s="294">
         <v>15000</v>
       </c>
-      <c r="Q42" s="294"/>
+      <c r="Q42" s="294">
+        <f>P42*M42</f>
+        <v>15000</v>
+      </c>
       <c r="R42" s="294">
         <f>Q42+O42</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="323" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -15739,25 +15803,30 @@
         <v>105000</v>
       </c>
       <c r="K43" s="293"/>
-      <c r="L43" s="293"/>
+      <c r="L43" s="293">
+        <v>1</v>
+      </c>
       <c r="M43" s="293">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="294">
         <v>90000</v>
       </c>
       <c r="O43" s="294">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="P43" s="294">
         <v>15000</v>
       </c>
-      <c r="Q43" s="294"/>
+      <c r="Q43" s="294">
+        <f>P43*M43</f>
+        <v>15000</v>
+      </c>
       <c r="R43" s="294">
         <f>Q43+O43</f>
-        <v>0</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="44" spans="1:18" s="323" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15794,10 +15863,12 @@
         <v>35000</v>
       </c>
       <c r="K44" s="293"/>
-      <c r="L44" s="293"/>
+      <c r="L44" s="293">
+        <v>1</v>
+      </c>
       <c r="M44" s="293">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="294">
         <v>0</v>
@@ -15809,10 +15880,13 @@
       <c r="P44" s="294">
         <v>35000</v>
       </c>
-      <c r="Q44" s="294"/>
+      <c r="Q44" s="294">
+        <f>P44*M44</f>
+        <v>35000</v>
+      </c>
       <c r="R44" s="294">
         <f>Q44+O44</f>
-        <v>0</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -15851,8 +15925,7 @@
       <c r="K45" s="293"/>
       <c r="L45" s="293"/>
       <c r="M45" s="293">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="294">
         <v>0</v>
@@ -15864,10 +15937,13 @@
       <c r="P45" s="294">
         <v>90000</v>
       </c>
-      <c r="Q45" s="294"/>
+      <c r="Q45" s="294">
+        <f>P45*M45</f>
+        <v>90000</v>
+      </c>
       <c r="R45" s="294">
         <f>Q45+O45</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15898,23 +15974,29 @@
       <c r="N46" s="435"/>
       <c r="O46" s="436">
         <f>SUM(O10:O45)</f>
-        <v>10035517</v>
+        <v>10352867</v>
       </c>
       <c r="P46" s="434"/>
       <c r="Q46" s="436">
         <f>SUM(Q10:Q45)</f>
-        <v>0</v>
+        <v>578000</v>
       </c>
       <c r="R46" s="424">
         <f>SUM(R10:R45)</f>
-        <v>10035517</v>
+        <v>10930867</v>
       </c>
     </row>
     <row r="52" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R52" s="650"/>
+      <c r="R52" s="581"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
@@ -15923,12 +16005,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16532,100 +16608,100 @@
       </c>
       <c r="B5" s="269"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="619" t="s">
+      <c r="D5" s="647" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="620"/>
-      <c r="F5" s="620"/>
-      <c r="G5" s="620"/>
-      <c r="H5" s="620"/>
-      <c r="I5" s="620"/>
-      <c r="J5" s="621"/>
-      <c r="K5" s="625" t="s">
+      <c r="E5" s="648"/>
+      <c r="F5" s="648"/>
+      <c r="G5" s="648"/>
+      <c r="H5" s="648"/>
+      <c r="I5" s="648"/>
+      <c r="J5" s="649"/>
+      <c r="K5" s="653" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="626"/>
-      <c r="M5" s="627"/>
-      <c r="N5" s="625" t="s">
+      <c r="L5" s="654"/>
+      <c r="M5" s="655"/>
+      <c r="N5" s="653" t="s">
         <v>206</v>
       </c>
-      <c r="O5" s="626"/>
-      <c r="P5" s="626"/>
-      <c r="Q5" s="626"/>
-      <c r="R5" s="627"/>
+      <c r="O5" s="654"/>
+      <c r="P5" s="654"/>
+      <c r="Q5" s="654"/>
+      <c r="R5" s="655"/>
     </row>
     <row r="6" spans="1:18" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
       <c r="B6" s="268"/>
       <c r="C6" s="263"/>
-      <c r="D6" s="622"/>
-      <c r="E6" s="623"/>
-      <c r="F6" s="623"/>
-      <c r="G6" s="623"/>
-      <c r="H6" s="623"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="629"/>
-      <c r="M6" s="630"/>
-      <c r="N6" s="628"/>
-      <c r="O6" s="629"/>
-      <c r="P6" s="629"/>
-      <c r="Q6" s="629"/>
-      <c r="R6" s="630"/>
+      <c r="D6" s="650"/>
+      <c r="E6" s="651"/>
+      <c r="F6" s="651"/>
+      <c r="G6" s="651"/>
+      <c r="H6" s="651"/>
+      <c r="I6" s="651"/>
+      <c r="J6" s="652"/>
+      <c r="K6" s="656"/>
+      <c r="L6" s="657"/>
+      <c r="M6" s="658"/>
+      <c r="N6" s="656"/>
+      <c r="O6" s="657"/>
+      <c r="P6" s="657"/>
+      <c r="Q6" s="657"/>
+      <c r="R6" s="658"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="583" t="s">
+      <c r="A7" s="614" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="608"/>
-      <c r="C7" s="587" t="s">
+      <c r="B7" s="636"/>
+      <c r="C7" s="604" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="587" t="s">
+      <c r="D7" s="604" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="631" t="s">
+      <c r="E7" s="643" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="634" t="s">
+      <c r="F7" s="644" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="635"/>
-      <c r="H7" s="634" t="s">
+      <c r="G7" s="645"/>
+      <c r="H7" s="644" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="636"/>
+      <c r="I7" s="646"/>
       <c r="J7" s="333" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="631" t="s">
+      <c r="K7" s="643" t="s">
         <v>207</v>
       </c>
-      <c r="L7" s="631" t="s">
+      <c r="L7" s="643" t="s">
         <v>208</v>
       </c>
-      <c r="M7" s="631" t="s">
+      <c r="M7" s="643" t="s">
         <v>189</v>
       </c>
-      <c r="N7" s="634" t="s">
+      <c r="N7" s="644" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="635"/>
-      <c r="P7" s="634" t="s">
+      <c r="O7" s="645"/>
+      <c r="P7" s="644" t="s">
         <v>119</v>
       </c>
-      <c r="Q7" s="636"/>
+      <c r="Q7" s="646"/>
       <c r="R7" s="333" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="275" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="585"/>
-      <c r="B8" s="609"/>
-      <c r="C8" s="588"/>
-      <c r="D8" s="588"/>
-      <c r="E8" s="614"/>
+      <c r="A8" s="616"/>
+      <c r="B8" s="637"/>
+      <c r="C8" s="605"/>
+      <c r="D8" s="605"/>
+      <c r="E8" s="640"/>
       <c r="F8" s="272" t="s">
         <v>122</v>
       </c>
@@ -16641,9 +16717,9 @@
       <c r="J8" s="274" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="614"/>
-      <c r="L8" s="614"/>
-      <c r="M8" s="614"/>
+      <c r="K8" s="640"/>
+      <c r="L8" s="640"/>
+      <c r="M8" s="640"/>
       <c r="N8" s="272" t="s">
         <v>122</v>
       </c>
@@ -16661,8 +16737,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="632"/>
-      <c r="B9" s="633"/>
+      <c r="A9" s="641"/>
+      <c r="B9" s="642"/>
       <c r="C9" s="334" t="s">
         <v>168</v>
       </c>
@@ -18638,6 +18714,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D5:J6"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="N5:R6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="N7:O7"/>
@@ -18648,11 +18729,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D5:J6"/>
-    <mergeCell ref="K5:M6"/>
-    <mergeCell ref="N5:R6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.45" right="0.21" top="0.25" bottom="0.5" header="0.33" footer="0.45"/>
